--- a/Students Grades.xlsx
+++ b/Students Grades.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ad\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Courses\My Workshop Embedded systems Level 1\Final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{606F2E27-EDD3-42D0-B417-A61EDB092418}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8E9C07E-E544-4CFD-ACBE-9162CFC2E58E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9480" yWindow="2130" windowWidth="27135" windowHeight="15375" tabRatio="289" firstSheet="1" activeTab="3" xr2:uid="{33B9133F-F4F3-44EC-9CAF-4D3A37E97D3A}"/>
+    <workbookView xWindow="51480" yWindow="3960" windowWidth="29040" windowHeight="15840" tabRatio="289" xr2:uid="{33B9133F-F4F3-44EC-9CAF-4D3A37E97D3A}"/>
   </bookViews>
   <sheets>
     <sheet name="General Grading" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="89">
   <si>
     <t xml:space="preserve">Names </t>
   </si>
@@ -280,9 +280,6 @@
   </si>
   <si>
     <t>SUM</t>
-  </si>
-  <si>
-    <t>?</t>
   </si>
   <si>
     <t>Final Project (100)</t>
@@ -792,8 +789,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{800F9206-6683-4CD4-9B4E-0FB87C50F01D}">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -816,31 +813,31 @@
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="F1" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="C1" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="E1" s="8" t="s">
+      <c r="G1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="I1" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="F1" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="I1" s="8" t="s">
+      <c r="J1" s="8" t="s">
         <v>82</v>
-      </c>
-      <c r="J1" s="8" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -1061,33 +1058,33 @@
       <c r="A8" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="13">
         <f>Absence!R8</f>
         <v>30</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="13">
         <f>SUM('Touch Typing Tasks'!B8:AI8)</f>
         <v>170</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="13">
         <f>'Technical Tasks'!H8</f>
         <v>40</v>
       </c>
-      <c r="E8" s="5">
-        <v>0</v>
-      </c>
-      <c r="F8" s="5">
-        <v>0</v>
-      </c>
-      <c r="G8" s="5">
+      <c r="E8" s="13">
+        <v>0</v>
+      </c>
+      <c r="F8" s="13">
+        <v>0</v>
+      </c>
+      <c r="G8" s="13">
         <f>Bonus!E8</f>
         <v>0</v>
       </c>
-      <c r="H8" s="5">
+      <c r="H8" s="13">
         <f t="shared" si="0"/>
         <v>240</v>
       </c>
-      <c r="I8" s="5"/>
+      <c r="I8" s="13"/>
       <c r="J8" s="5"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -1131,66 +1128,66 @@
       <c r="A10" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="13">
         <f>Absence!R10</f>
         <v>40.5</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="13">
         <f>SUM('Touch Typing Tasks'!B10:AI10)</f>
         <v>170</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="13">
         <f>'Technical Tasks'!H10</f>
-        <v>20</v>
-      </c>
-      <c r="E10" s="5">
-        <v>0</v>
-      </c>
-      <c r="F10" s="5">
-        <v>0</v>
-      </c>
-      <c r="G10" s="5">
+        <v>35</v>
+      </c>
+      <c r="E10" s="13">
+        <v>90</v>
+      </c>
+      <c r="F10" s="13">
+        <v>0</v>
+      </c>
+      <c r="G10" s="13">
         <f>Bonus!E10</f>
         <v>1</v>
       </c>
-      <c r="H10" s="5">
-        <f t="shared" si="0"/>
-        <v>231.5</v>
-      </c>
-      <c r="I10" s="5"/>
+      <c r="H10" s="13">
+        <f t="shared" si="0"/>
+        <v>336.5</v>
+      </c>
+      <c r="I10" s="13"/>
       <c r="J10" s="1"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="13">
         <f>Absence!R11</f>
         <v>24</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="13">
         <f>SUM('Touch Typing Tasks'!B11:AI11)</f>
         <v>170</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="13">
         <f>'Technical Tasks'!H11</f>
         <v>24</v>
       </c>
-      <c r="E11" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="F11" s="5">
-        <v>0</v>
-      </c>
-      <c r="G11" s="5">
+      <c r="E11" s="13">
+        <v>90</v>
+      </c>
+      <c r="F11" s="13">
+        <v>0</v>
+      </c>
+      <c r="G11" s="13">
         <f>Bonus!E11</f>
         <v>0</v>
       </c>
-      <c r="H11" s="5">
-        <f t="shared" si="0"/>
-        <v>218</v>
-      </c>
-      <c r="I11" s="5"/>
+      <c r="H11" s="13">
+        <f t="shared" si="0"/>
+        <v>308</v>
+      </c>
+      <c r="I11" s="13"/>
       <c r="J11" s="1"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -1407,7 +1404,7 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1696,11 +1693,11 @@
         <v>0</v>
       </c>
       <c r="G10" s="5">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H10" s="5">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -3799,7 +3796,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD76E0AA-437D-40AC-9802-6C33BBF669B4}">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
@@ -3841,7 +3838,7 @@
         <v>3</v>
       </c>
       <c r="E2" s="5">
-        <f>SUM(B2:D2)</f>
+        <f t="shared" ref="E2:E17" si="0">SUM(B2:D2)</f>
         <v>7</v>
       </c>
     </row>
@@ -3860,7 +3857,7 @@
         <v>1</v>
       </c>
       <c r="E3" s="5">
-        <f>SUM(B3:D3)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
@@ -3879,7 +3876,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="5">
-        <f>SUM(B4:D4)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
@@ -3898,7 +3895,7 @@
         <v>9</v>
       </c>
       <c r="E5" s="5">
-        <f>SUM(B5:D5)</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
     </row>
@@ -3917,7 +3914,7 @@
         <v>0</v>
       </c>
       <c r="E6" s="5">
-        <f>SUM(B6:D6)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -3936,7 +3933,7 @@
         <v>0</v>
       </c>
       <c r="E7" s="5">
-        <f>SUM(B7:D7)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -3955,7 +3952,7 @@
         <v>0</v>
       </c>
       <c r="E8" s="5">
-        <f>SUM(B8:D8)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -3975,11 +3972,11 @@
         <v>3.5</v>
       </c>
       <c r="E9" s="5">
-        <f>SUM(B9:D9)</f>
+        <f t="shared" si="0"/>
         <v>14.5</v>
       </c>
       <c r="G9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -3997,7 +3994,7 @@
         <v>0</v>
       </c>
       <c r="E10" s="5">
-        <f>SUM(B10:D10)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -4016,7 +4013,7 @@
         <v>0</v>
       </c>
       <c r="E11" s="5">
-        <f>SUM(B11:D11)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4035,7 +4032,7 @@
         <v>1</v>
       </c>
       <c r="E12" s="5">
-        <f>SUM(B12:D12)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
@@ -4054,7 +4051,7 @@
         <v>0</v>
       </c>
       <c r="E13" s="5">
-        <f>SUM(B13:D13)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -4073,7 +4070,7 @@
         <v>0</v>
       </c>
       <c r="E14" s="5">
-        <f>SUM(B14:D14)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4093,7 +4090,7 @@
         <v>0</v>
       </c>
       <c r="E15" s="5">
-        <f>SUM(B15:D15)</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
@@ -4113,7 +4110,7 @@
         <v>0</v>
       </c>
       <c r="E16" s="5">
-        <f>SUM(B16:D16)</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
@@ -4132,7 +4129,7 @@
         <v>0</v>
       </c>
       <c r="E17" s="5">
-        <f>SUM(B17:D17)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>

--- a/Students Grades.xlsx
+++ b/Students Grades.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Courses\My Workshop Embedded systems Level 1\Final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8E9C07E-E544-4CFD-ACBE-9162CFC2E58E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F93FE47A-6CC5-4551-928C-3D45102D4D48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51480" yWindow="3960" windowWidth="29040" windowHeight="15840" tabRatio="289" xr2:uid="{33B9133F-F4F3-44EC-9CAF-4D3A37E97D3A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" tabRatio="289" xr2:uid="{33B9133F-F4F3-44EC-9CAF-4D3A37E97D3A}"/>
   </bookViews>
   <sheets>
     <sheet name="General Grading" sheetId="1" r:id="rId1"/>
@@ -363,7 +363,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -406,6 +406,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -435,7 +441,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -467,6 +473,8 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -790,7 +798,7 @@
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1191,37 +1199,37 @@
       <c r="J11" s="1"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="B12" s="14">
+      <c r="B12" s="13">
         <f>Absence!R12</f>
         <v>37.5</v>
       </c>
-      <c r="C12" s="14">
+      <c r="C12" s="13">
         <f>SUM('Touch Typing Tasks'!B12:AI12)</f>
         <v>170</v>
       </c>
-      <c r="D12" s="14">
+      <c r="D12" s="13">
         <f>'Technical Tasks'!H12</f>
         <v>0</v>
       </c>
-      <c r="E12" s="14">
-        <v>0</v>
-      </c>
-      <c r="F12" s="14">
-        <v>0</v>
-      </c>
-      <c r="G12" s="14">
+      <c r="E12" s="13">
+        <v>90</v>
+      </c>
+      <c r="F12" s="13">
+        <v>0</v>
+      </c>
+      <c r="G12" s="13">
         <f>Bonus!E12</f>
         <v>4</v>
       </c>
-      <c r="H12" s="14">
-        <f t="shared" si="0"/>
-        <v>211.5</v>
-      </c>
-      <c r="I12" s="14"/>
-      <c r="J12" s="15"/>
+      <c r="H12" s="13">
+        <f t="shared" si="0"/>
+        <v>301.5</v>
+      </c>
+      <c r="I12" s="13"/>
+      <c r="J12" s="18"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="16" t="s">
